--- a/ig/nr-resolve-path-publication/CodeSystem-eclaire-type-contact-code-system.xlsx
+++ b/ig/nr-resolve-path-publication/CodeSystem-eclaire-type-contact-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:04:37+00:00</t>
+    <t>2023-10-24T08:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
